--- a/chapter4/Chapter4-HW-withAnswers.xlsx
+++ b/chapter4/Chapter4-HW-withAnswers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LDA-before_solveUsed" sheetId="4" r:id="rId1"/>
@@ -314,9 +314,6 @@
     <t>inter/within ratio</t>
   </si>
   <si>
-    <t>Within-g varience</t>
-  </si>
-  <si>
     <t>New Dataset</t>
   </si>
   <si>
@@ -324,6 +321,9 @@
   </si>
   <si>
     <t>This is used</t>
+  </si>
+  <si>
+    <t>Within-g variance</t>
   </si>
 </sst>
 </file>
@@ -644,7 +644,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>71350</xdr:colOff>
+      <xdr:colOff>71351</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>38073</xdr:rowOff>
     </xdr:to>
@@ -682,7 +682,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>289926</xdr:colOff>
+      <xdr:colOff>289927</xdr:colOff>
       <xdr:row>84</xdr:row>
       <xdr:rowOff>115575</xdr:rowOff>
     </xdr:to>
@@ -1608,8 +1608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="89" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+    <sheetView topLeftCell="I19" zoomScale="89" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1680,7 +1680,7 @@
         <v>39</v>
       </c>
       <c r="S1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
@@ -2149,10 +2149,10 @@
         <v>8.924789387860009E-2</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
@@ -4825,7 +4825,7 @@
         <v>6.2408509741172763E-2</v>
       </c>
       <c r="U46" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V46" s="3"/>
       <c r="W46" s="3"/>
@@ -13536,8 +13536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ179"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScale="89" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="AQ47" sqref="AQ47"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="89" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13546,7 +13546,7 @@
     <col min="16" max="16" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="11.85546875" customWidth="1"/>
@@ -13608,7 +13608,7 @@
         <v>39</v>
       </c>
       <c r="S1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
@@ -14077,10 +14077,10 @@
         <v>5.2004252113002837E-2</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
@@ -16753,7 +16753,7 @@
         <v>2.6716619619022854E-2</v>
       </c>
       <c r="U46" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V46" s="3"/>
       <c r="W46" s="3"/>
